--- a/2018/Nordeste/CE/resultado.xlsx
+++ b/2018/Nordeste/CE/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:K266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,16 @@
           <t>DS_GENERO</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -522,6 +532,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -565,6 +585,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +638,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -651,6 +691,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -694,6 +744,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -737,6 +797,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -780,6 +850,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -823,6 +903,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -866,6 +956,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -909,6 +1009,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -952,6 +1062,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -995,6 +1115,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1038,6 +1168,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1081,6 +1221,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1124,6 +1274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1167,6 +1327,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1210,6 +1380,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1253,6 +1433,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1296,6 +1486,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1339,6 +1539,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1382,6 +1592,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1425,6 +1645,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1468,6 +1698,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1511,6 +1751,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1554,6 +1804,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1597,6 +1857,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1640,6 +1910,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1683,6 +1963,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1726,6 +2016,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1769,6 +2069,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1812,6 +2122,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1855,6 +2175,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1898,6 +2228,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1941,6 +2281,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1984,6 +2334,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2027,6 +2387,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2070,6 +2440,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2113,6 +2493,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2156,6 +2546,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2199,6 +2599,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2242,6 +2652,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2285,6 +2705,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2328,6 +2758,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2371,6 +2811,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2414,6 +2864,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2457,6 +2917,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2500,6 +2970,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2543,6 +3023,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2586,6 +3076,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2629,6 +3129,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2672,6 +3182,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2715,6 +3235,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2758,6 +3288,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2801,6 +3341,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2844,6 +3394,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2887,6 +3447,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2930,6 +3500,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2973,6 +3553,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3016,6 +3606,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3059,6 +3659,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3102,6 +3712,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3145,6 +3765,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3188,6 +3818,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3231,6 +3871,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3274,6 +3924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3317,6 +3977,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3360,6 +4030,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3403,6 +4083,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3446,6 +4136,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3489,6 +4189,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3532,6 +4242,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3575,6 +4295,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3618,6 +4348,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3661,6 +4401,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3704,6 +4454,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3747,6 +4507,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3790,6 +4560,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3833,6 +4613,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3876,6 +4666,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3919,6 +4719,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3962,6 +4772,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4005,6 +4825,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4048,6 +4878,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4091,6 +4931,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4134,6 +4984,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4177,6 +5037,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4220,6 +5090,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4263,6 +5143,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4306,6 +5196,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4349,6 +5249,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4392,6 +5302,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4435,6 +5355,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4478,6 +5408,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4521,6 +5461,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4564,6 +5514,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4607,6 +5567,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4650,6 +5620,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4693,6 +5673,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4736,6 +5726,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4779,6 +5779,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4822,6 +5832,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4865,6 +5885,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4908,6 +5938,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4951,6 +5991,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4994,6 +6044,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5037,6 +6097,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5080,6 +6150,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5123,6 +6203,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5166,6 +6256,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5209,6 +6309,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5252,6 +6362,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5295,6 +6415,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5338,6 +6468,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5381,6 +6521,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5424,6 +6574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5467,6 +6627,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5510,6 +6680,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5553,6 +6733,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5596,6 +6786,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5639,6 +6839,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5682,6 +6892,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5725,6 +6945,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5768,6 +6998,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5811,6 +7051,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5854,6 +7104,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5897,6 +7157,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5940,6 +7210,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5983,6 +7263,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6026,6 +7316,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6069,6 +7369,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6112,6 +7422,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6155,6 +7475,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6198,6 +7528,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6241,6 +7581,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6284,6 +7634,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6327,6 +7687,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6370,6 +7740,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6413,6 +7793,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6456,6 +7846,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6499,6 +7899,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6542,6 +7952,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6585,6 +8005,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6628,6 +8058,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6671,6 +8111,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6714,6 +8164,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6757,6 +8217,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6800,6 +8270,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6843,6 +8323,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6886,6 +8376,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6929,6 +8429,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6972,6 +8482,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7015,6 +8535,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7058,6 +8588,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -7101,6 +8641,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7144,6 +8694,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -7187,6 +8747,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7230,6 +8800,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -7273,6 +8853,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7316,6 +8906,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7359,6 +8959,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7402,6 +9012,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7445,6 +9065,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -7488,6 +9118,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7531,6 +9171,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7574,6 +9224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7617,6 +9277,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7660,6 +9330,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7703,6 +9383,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7746,6 +9436,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7789,6 +9489,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7832,6 +9542,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7875,6 +9595,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7918,6 +9648,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7961,6 +9701,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8004,6 +9754,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8047,6 +9807,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8090,6 +9860,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -8133,6 +9913,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -8176,6 +9966,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8219,6 +10019,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8262,6 +10072,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -8305,6 +10125,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8348,6 +10178,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8391,6 +10231,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8434,6 +10284,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8477,6 +10337,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8520,6 +10390,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8563,6 +10443,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8606,6 +10496,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8649,6 +10549,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8692,6 +10602,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8735,6 +10655,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8778,6 +10708,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8821,6 +10761,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8864,6 +10814,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8907,6 +10867,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -8950,6 +10920,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8993,6 +10973,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -9036,6 +11026,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -9079,6 +11079,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -9122,6 +11132,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -9165,6 +11185,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -9208,6 +11238,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -9251,6 +11291,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -9294,6 +11344,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -9337,6 +11397,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9380,6 +11450,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -9423,6 +11503,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9466,6 +11556,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -9509,6 +11609,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -9552,6 +11662,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -9595,6 +11715,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -9638,6 +11768,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -9681,6 +11821,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -9724,6 +11874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9767,6 +11927,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -9810,6 +11980,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -9853,6 +12033,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -9896,6 +12086,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -9939,6 +12139,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -9982,6 +12192,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -10025,6 +12245,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -10068,6 +12298,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -10111,6 +12351,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -10154,6 +12404,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -10197,6 +12457,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -10240,6 +12510,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -10283,6 +12563,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -10326,6 +12616,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -10369,6 +12669,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -10412,6 +12722,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -10455,6 +12775,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -10498,6 +12828,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10541,6 +12881,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -10584,6 +12934,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10627,6 +12987,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10670,6 +13040,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -10713,6 +13093,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -10756,6 +13146,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -10799,6 +13199,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -10842,6 +13252,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -10885,6 +13305,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -10928,6 +13358,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -10971,6 +13411,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -11014,6 +13464,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -11057,6 +13517,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -11100,6 +13570,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -11143,6 +13623,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -11186,6 +13676,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -11229,6 +13729,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -11272,6 +13782,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -11315,6 +13835,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -11358,6 +13888,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -11401,6 +13941,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -11444,6 +13994,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -11487,6 +14047,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11530,6 +14100,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11573,6 +14153,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -11616,6 +14206,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -11659,6 +14259,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11702,6 +14312,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -11745,6 +14365,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -11788,6 +14418,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -11831,6 +14471,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -11872,6 +14522,16 @@
       <c r="I266" t="inlineStr">
         <is>
           <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
     </row>

--- a/2018/Nordeste/CE/resultado.xlsx
+++ b/2018/Nordeste/CE/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K266"/>
+  <dimension ref="A1:O266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,32 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS_ESTADO_CIVIL</t>
+          <t>DS_ESTADO_CIVIL_x</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DS_GRAU_INSTRUCAO</t>
+          <t>DS_GRAU_INSTRUCAO_x</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO</t>
         </is>
       </c>
     </row>
@@ -542,6 +562,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>60000601215</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -595,6 +633,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>60000601216</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -648,6 +704,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>60000601217</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -701,6 +775,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>60000601218</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -754,6 +846,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>60000601219</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -807,6 +917,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>60000601220</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -860,6 +988,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>60000601221</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -913,6 +1059,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>60000601222</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -966,6 +1130,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>60000601223</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1019,6 +1201,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>60000601224</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1072,6 +1272,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>60000601225</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1125,6 +1343,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>60000601226</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1178,6 +1414,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>60000601227</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1231,6 +1485,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>60000601228</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1284,6 +1556,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>60000601229</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1337,6 +1627,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>60000601230</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1390,6 +1698,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>60000601231</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1443,6 +1769,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>60000601232</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1496,6 +1840,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>60000601233</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1549,6 +1911,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>60000601234</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1602,6 +1982,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>60000601235</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1655,6 +2053,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>60000601236</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1708,6 +2124,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>60000601237</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1761,6 +2195,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>60000601238</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1814,6 +2266,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>60000601239</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1867,6 +2337,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>60000601258</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1920,6 +2408,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>60000601270</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1973,6 +2479,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>60000601291</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2026,6 +2550,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>60000601301</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2079,6 +2621,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>60000604491</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2132,6 +2692,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>60000604492</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2185,6 +2763,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>60000604493</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2238,6 +2834,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>60000604494</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2291,6 +2905,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>60000604495</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2344,6 +2976,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>60000604496</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2397,6 +3047,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>60000605015</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2450,6 +3118,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>60000605024</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2503,6 +3189,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>60000605025</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2556,6 +3260,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>60000605026</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2609,6 +3331,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>60000605027</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2662,6 +3402,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>60000605028</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2715,6 +3473,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>60000605031</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2768,6 +3544,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>60000605032</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2821,6 +3615,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>60000605036</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2874,6 +3686,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>60000605037</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2927,6 +3757,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>60000605038</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2980,6 +3828,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>60000605039</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3033,6 +3899,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>60000605040</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3086,6 +3970,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>60000605041</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3139,6 +4041,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>60000605056</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3192,6 +4112,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>60000605059</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3245,6 +4183,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>60000605060</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3298,6 +4254,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>60000605061</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3351,6 +4325,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>60000605062</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3404,6 +4396,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>60000605063</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3457,6 +4467,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>60000605070</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3510,6 +4538,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>60000605071</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3563,6 +4609,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>60000605072</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3616,6 +4680,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>60000605073</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3669,6 +4751,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>60000605074</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3722,6 +4822,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>60000605075</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3775,6 +4893,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>60000605076</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3828,6 +4964,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>60000605077</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3881,6 +5035,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>60000605078</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3934,6 +5106,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>60000605096</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3987,6 +5177,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>60000605097</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4040,6 +5248,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>60000605098</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4093,6 +5319,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>60000610984</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4146,6 +5390,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>60000610985</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4199,6 +5461,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>60000610986</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4252,6 +5532,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>60000610987</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4305,6 +5603,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>60000610988</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4358,6 +5674,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>60000610989</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4411,6 +5745,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>60000610990</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4464,6 +5816,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>60000610991</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4517,6 +5887,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>60000610992</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4570,6 +5958,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>60000610993</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4623,6 +6029,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>60000610994</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4676,6 +6100,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>60000610995</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4729,6 +6171,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>60000610996</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4782,6 +6242,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>60000610997</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4835,6 +6313,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>60000610998</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4888,6 +6384,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>60000610999</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4941,6 +6455,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>60000611000</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4994,6 +6526,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>60000611001</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5047,6 +6597,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>60000611002</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5100,6 +6668,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>60000611003</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5153,6 +6739,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>60000611004</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5206,6 +6810,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>60000611005</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5259,6 +6881,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>60000611006</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5312,6 +6952,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>60000611007</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5365,6 +7023,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>60000611008</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5418,6 +7094,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>60000611009</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5471,6 +7165,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>60000611010</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5524,6 +7236,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>60000611011</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5577,6 +7307,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>60000611012</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5630,6 +7378,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>60000611013</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5683,6 +7449,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>60000611217</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5736,6 +7520,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>60000611218</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5789,6 +7591,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>60000611219</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5842,6 +7662,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>60000611220</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5895,6 +7733,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>60000611221</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5948,6 +7804,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>60000611222</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6001,6 +7875,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>60000611223</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6054,6 +7946,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>60000611224</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6107,6 +8017,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>60000611225</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6160,6 +8088,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>60000611226</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6213,6 +8159,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>60000611227</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6266,6 +8230,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>60000611228</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6319,6 +8301,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>60000611229</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6372,6 +8372,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>60000611230</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6425,6 +8443,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>60000611231</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6478,6 +8514,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>60000611232</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6531,6 +8585,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>60000611233</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6584,6 +8656,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>60000611234</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6637,6 +8727,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>60000611235</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6690,6 +8798,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>60000611236</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6743,6 +8869,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>60000611237</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6796,6 +8940,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>60000611238</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6849,6 +9011,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>60000611239</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6902,6 +9082,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>60000611240</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6955,6 +9153,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>60000611241</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7008,6 +9224,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>60000611242</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7061,6 +9295,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>60000611243</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7114,6 +9366,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>60000611244</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7167,6 +9437,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>60000611245</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7220,6 +9508,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>60000611246</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7273,6 +9579,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>60000611247</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7326,6 +9650,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>60000611248</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7379,6 +9721,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>60000611562</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7432,6 +9792,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>60000611563</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7485,6 +9863,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>60000611564</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7538,6 +9934,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>60000611565</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7591,6 +10005,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>60000611566</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7644,6 +10076,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>60000611567</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7697,6 +10147,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>60000611568</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7750,6 +10218,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>60000611569</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7803,6 +10289,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>60000611570</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7856,6 +10360,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>60000611572</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7909,6 +10431,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>60000611573</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7962,6 +10502,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>60000611576</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8015,6 +10573,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>60000611577</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8068,6 +10644,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>60000611733</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8121,6 +10715,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>60000611744</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8174,6 +10786,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>60000611745</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8227,6 +10857,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>60000611746</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8280,6 +10928,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>60000611747</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8333,6 +10999,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>60000611748</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8386,6 +11070,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>60000611749</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8439,6 +11141,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>60000611765</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8492,6 +11212,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>60000611766</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -8545,6 +11283,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>60000611767</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -8598,6 +11354,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>60000611768</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -8651,6 +11425,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>60000611769</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -8704,6 +11496,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>60000611770</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -8757,6 +11567,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>60000611771</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -8810,6 +11638,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>60000611772</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8863,6 +11709,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>60000611778</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -8916,6 +11780,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>60000611779</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8969,6 +11851,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>60000611790</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9022,6 +11922,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>60000611791</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9075,6 +11993,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>60000611798</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9128,6 +12064,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>60000611806</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9181,6 +12135,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>60000611809</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9234,6 +12206,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>60000611810</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9287,6 +12277,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>60000611814</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9340,6 +12348,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>60000611818</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9393,6 +12419,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>60000611819</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9446,6 +12490,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>60000611821</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -9499,6 +12561,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>60000611823</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -9552,6 +12632,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>60000611824</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -9605,6 +12703,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>60000611825</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -9658,6 +12774,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>60000611829</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -9711,6 +12845,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>60000611831</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -9764,6 +12916,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>60000611832</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -9817,6 +12987,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>60000611944</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -9870,6 +13058,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>60000611945</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -9923,6 +13129,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>60000611946</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -9976,6 +13200,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>60000611947</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10029,6 +13271,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>60000611948</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10082,6 +13342,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>60000611949</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10135,6 +13413,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>60000611950</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10188,6 +13484,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>60000611951</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10241,6 +13555,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>60000611952</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10294,6 +13626,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>60000611953</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -10347,6 +13697,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>60000611954</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -10400,6 +13768,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>60000611955</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -10453,6 +13839,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>60000611956</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -10506,6 +13910,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>60000611957</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -10559,6 +13981,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>60000611958</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -10612,6 +14052,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>60000611959</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -10665,6 +14123,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>60000611960</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -10718,6 +14194,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>60000611961</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -10771,6 +14265,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>60000611962</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -10824,6 +14336,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>60000611963</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -10877,6 +14407,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>60000611964</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -10930,6 +14478,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>60000611965</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -10983,6 +14549,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>60000611966</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11036,6 +14620,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>60000611967</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11089,6 +14691,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>60000611968</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11142,6 +14762,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>60000611969</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -11195,6 +14833,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>60000611970</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -11248,6 +14904,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>60000611971</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -11301,6 +14975,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>60000611972</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -11354,6 +15046,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>60000616816</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>PCO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -11407,6 +15117,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>60000620380</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -11460,6 +15188,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>60000620381</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -11513,6 +15259,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>60000620382</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -11566,6 +15330,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>60000620383</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -11619,6 +15401,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>60000620524</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -11672,6 +15472,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>60000620535</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -11725,6 +15543,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>60000620536</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -11778,6 +15614,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>60000620544</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -11831,6 +15685,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>60000620546</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -11884,6 +15756,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>60000620549</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -11937,6 +15827,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>60000620555</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -11990,6 +15898,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>60000620556</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12043,6 +15969,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>60000620557</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12096,6 +16040,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>60000620559</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -12149,6 +16111,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>60000620560</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -12202,6 +16182,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>60000620561</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -12255,6 +16253,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>60000620562</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -12308,6 +16324,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>60000620563</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -12361,6 +16395,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>60000620564</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -12414,6 +16466,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>60000620565</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -12467,6 +16537,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>60000620566</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -12520,6 +16608,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>60000620567</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -12573,6 +16679,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>60000620574</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -12626,6 +16750,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>60000620575</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -12679,6 +16821,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>60000620578</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -12732,6 +16892,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>60000620579</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -12785,6 +16963,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>60000620580</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -12838,6 +17034,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>60000620581</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -12891,6 +17105,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>60000620587</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -12944,6 +17176,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>60000620590</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -12997,6 +17247,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>60000621450</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -13050,6 +17318,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>60000622545</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -13103,6 +17389,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>60000622548</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -13156,6 +17460,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>60000622550</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -13209,6 +17531,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>60000622551</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -13262,6 +17602,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>60000622552</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -13315,6 +17673,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>60000622556</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -13368,6 +17744,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>60000622557</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -13421,6 +17815,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>60000622558</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -13474,6 +17886,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>60000622559</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -13527,6 +17957,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>60000622561</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -13580,6 +18028,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>60000622562</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -13633,6 +18099,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>60000622563</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -13686,6 +18170,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>60000622565</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -13739,6 +18241,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>60000622566</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -13792,6 +18312,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>60000622568</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -13845,6 +18383,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>60000628010</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -13898,6 +18454,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>60000628053</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -13951,6 +18525,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>60000628103</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -14004,6 +18596,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>60000628110</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -14057,6 +18667,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>60000628111</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -14110,6 +18738,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>60000628150</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -14163,6 +18809,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>60000628151</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -14216,6 +18880,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>60000628408</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -14269,6 +18951,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>60000628409</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -14322,6 +19022,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>60000628876</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -14375,6 +19093,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>60000629050</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -14428,6 +19164,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>60000629863</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -14481,6 +19235,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>60000630000</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -14532,6 +19304,24 @@
       <c r="K266" t="inlineStr">
         <is>
           <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>60000630072</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>MDB</t>
         </is>
       </c>
     </row>

--- a/2018/Nordeste/CE/resultado.xlsx
+++ b/2018/Nordeste/CE/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O266"/>
+  <dimension ref="A1:S266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,32 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>SG_PARTIDO_x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO_y</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>SQ_CANDIDATO</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>SG_PARTIDO</t>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DS_COR_RACA</t>
         </is>
       </c>
     </row>
@@ -572,12 +592,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>60000601215</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -643,12 +683,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>60000601216</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -714,12 +774,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>60000601217</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -785,12 +865,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>60000601218</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -856,12 +956,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>60000601219</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -927,12 +1047,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>60000601220</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -998,12 +1138,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>60000601221</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1229,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>60000601222</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1140,12 +1320,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>60000601223</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1411,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>60000601224</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1502,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>60000601225</v>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1593,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>60000601226</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1684,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>60000601227</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1775,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>60000601228</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1866,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>60000601229</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1957,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>60000601230</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1708,12 +2048,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>60000601231</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1779,12 +2139,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>60000601232</v>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1850,12 +2230,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>60000601233</v>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1921,12 +2321,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>60000601234</v>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -1992,12 +2412,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>60000601235</v>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2503,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>60000601236</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2594,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>60000601237</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2685,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>60000601238</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2276,12 +2776,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>60000601239</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2867,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>60000601258</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2958,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>60000601270</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2489,12 +3049,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>60000601291</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2560,12 +3140,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>60000601301</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2631,12 +3231,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>60000604491</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>NOVO</t>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2702,12 +3322,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>60000604492</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>NOVO</t>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2773,12 +3413,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>60000604493</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>NOVO</t>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2844,12 +3504,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>60000604494</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>NOVO</t>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2915,12 +3595,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>60000604495</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>NOVO</t>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3686,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>60000604496</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>NOVO</t>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3057,12 +3777,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>60000605015</v>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>PRB</t>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3868,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>60000605024</v>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3199,12 +3959,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>60000605025</v>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3270,12 +4050,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>60000605026</v>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3341,12 +4141,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>60000605027</v>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3412,12 +4232,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>60000605028</v>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3483,12 +4323,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>60000605031</v>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>SOLIDARIEDADE</t>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3554,12 +4414,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>60000605032</v>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>SOLIDARIEDADE</t>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3625,12 +4505,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>60000605036</v>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3696,12 +4596,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>60000605037</v>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3767,12 +4687,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>60000605038</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3838,12 +4778,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>60000605039</v>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3909,12 +4869,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>60000605040</v>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>AMARELA</t>
         </is>
       </c>
     </row>
@@ -3980,12 +4960,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>60000605041</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4051,12 +5051,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N51" t="n">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>60000605056</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>PSC</t>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4122,12 +5142,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N52" t="n">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>60000605059</v>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4193,12 +5233,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N53" t="n">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>60000605060</v>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4264,12 +5324,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N54" t="n">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>60000605061</v>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4335,12 +5415,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
         <v>60000605062</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4406,12 +5506,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N56" t="n">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>60000605063</v>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4477,12 +5597,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N57" t="n">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>60000605070</v>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4548,12 +5688,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>60000605071</v>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4619,12 +5779,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N59" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>60000605072</v>
       </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4690,12 +5870,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>60000605073</v>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5961,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>60000605074</v>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4832,12 +6052,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>60000605075</v>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4903,12 +6143,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N63" t="n">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>60000605076</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4974,12 +6234,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>60000605077</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5045,12 +6325,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>60000605078</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5116,12 +6416,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>60000605096</v>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5187,12 +6507,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N67" t="n">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>60000605097</v>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5258,12 +6598,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>60000605098</v>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5329,12 +6689,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>60000610984</v>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5400,12 +6780,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N70" t="n">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>60000610985</v>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5471,12 +6871,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>60000610986</v>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -5542,12 +6962,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>60000610987</v>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5613,12 +7053,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N73" t="n">
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
         <v>60000610988</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5684,12 +7144,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>60000610989</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -5755,12 +7235,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N75" t="n">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>60000610990</v>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5826,12 +7326,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
         <v>60000610991</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5897,12 +7417,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>60000610992</v>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5968,12 +7508,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N78" t="n">
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>60000610993</v>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6039,12 +7599,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N79" t="n">
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
         <v>60000610994</v>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6110,12 +7690,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N80" t="n">
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>60000610995</v>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>AMARELA</t>
         </is>
       </c>
     </row>
@@ -6181,12 +7781,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N81" t="n">
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
         <v>60000610996</v>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6252,12 +7872,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N82" t="n">
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
         <v>60000610997</v>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6323,12 +7963,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N83" t="n">
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>60000610998</v>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -6394,12 +8054,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N84" t="n">
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>60000610999</v>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6465,12 +8145,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N85" t="n">
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
         <v>60000611000</v>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6536,12 +8236,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>60000611001</v>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -6607,12 +8327,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N87" t="n">
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>60000611002</v>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6678,12 +8418,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
         <v>60000611003</v>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6749,12 +8509,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N89" t="n">
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>60000611004</v>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6820,12 +8600,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="N90" t="n">
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
         <v>60000611005</v>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6891,12 +8691,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N91" t="n">
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
         <v>60000611006</v>
       </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6962,12 +8782,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>60000611007</v>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7033,12 +8873,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>60000611008</v>
       </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7104,12 +8964,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>60000611009</v>
       </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7175,12 +9055,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>60000611010</v>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7246,12 +9146,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>60000611011</v>
       </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7317,12 +9237,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
         <v>60000611012</v>
       </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7388,12 +9328,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
         <v>60000611013</v>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7459,12 +9419,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
         <v>60000611217</v>
       </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7530,12 +9510,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
         <v>60000611218</v>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7601,12 +9601,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
         <v>60000611219</v>
       </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7672,12 +9692,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
         <v>60000611220</v>
       </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7743,12 +9783,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
         <v>60000611221</v>
       </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -7814,12 +9874,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>60000611222</v>
       </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -7885,12 +9965,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>60000611223</v>
       </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -7956,12 +10056,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>60000611224</v>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -8027,12 +10147,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>60000611225</v>
       </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8098,12 +10238,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>60000611226</v>
       </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8169,12 +10329,32 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
         <v>60000611227</v>
       </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8240,12 +10420,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>60000611228</v>
       </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8311,12 +10511,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
         <v>60000611229</v>
       </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8382,12 +10602,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
         <v>60000611230</v>
       </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8453,12 +10693,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
         <v>60000611231</v>
       </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8524,12 +10784,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
         <v>60000611232</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8595,12 +10875,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>60000611233</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8666,12 +10966,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>60000611234</v>
       </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -8737,12 +11057,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
         <v>60000611235</v>
       </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8808,12 +11148,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>60000611236</v>
       </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8879,12 +11239,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
         <v>60000611237</v>
       </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -8950,12 +11330,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
         <v>60000611238</v>
       </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9021,12 +11421,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N121" t="n">
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
         <v>60000611239</v>
       </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9092,12 +11512,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N122" t="n">
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
         <v>60000611240</v>
       </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9163,12 +11603,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N123" t="n">
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
         <v>60000611241</v>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9234,12 +11694,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
         <v>60000611242</v>
       </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9305,12 +11785,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
         <v>60000611243</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9376,12 +11876,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N126" t="n">
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
         <v>60000611244</v>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9447,12 +11967,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
         <v>60000611245</v>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9518,12 +12058,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
         <v>60000611246</v>
       </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9589,12 +12149,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
         <v>60000611247</v>
       </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9660,12 +12240,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N130" t="n">
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
         <v>60000611248</v>
       </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9731,12 +12331,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N131" t="n">
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>60000611562</v>
       </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9802,12 +12422,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>60000611563</v>
       </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -9873,12 +12513,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N133" t="n">
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
         <v>60000611564</v>
       </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -9944,12 +12604,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N134" t="n">
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
         <v>60000611565</v>
       </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10015,12 +12695,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
         <v>60000611566</v>
       </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10086,12 +12786,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
         <v>60000611567</v>
       </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10157,12 +12877,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>60000611568</v>
       </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10228,12 +12968,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
         <v>60000611569</v>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10299,12 +13059,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N139" t="n">
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
         <v>60000611570</v>
       </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10370,12 +13150,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
         <v>60000611572</v>
       </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10441,12 +13241,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N141" t="n">
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
         <v>60000611573</v>
       </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10512,12 +13332,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
         <v>60000611576</v>
       </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10583,12 +13423,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
         <v>60000611577</v>
       </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10654,12 +13514,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
         <v>60000611733</v>
       </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10725,12 +13605,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N145" t="n">
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
         <v>60000611744</v>
       </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10796,12 +13696,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N146" t="n">
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>60000611745</v>
       </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -10867,12 +13787,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N147" t="n">
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
         <v>60000611746</v>
       </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -10938,12 +13878,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N148" t="n">
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
         <v>60000611747</v>
       </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11009,12 +13969,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
         <v>60000611748</v>
       </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11080,12 +14060,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N150" t="n">
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
         <v>60000611749</v>
       </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11151,12 +14151,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N151" t="n">
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
         <v>60000611765</v>
       </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11222,12 +14242,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N152" t="n">
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
         <v>60000611766</v>
       </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -11293,12 +14333,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N153" t="n">
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
         <v>60000611767</v>
       </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11364,12 +14424,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N154" t="n">
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
         <v>60000611768</v>
       </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11435,12 +14515,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N155" t="n">
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
         <v>60000611769</v>
       </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11506,12 +14606,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N156" t="n">
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
         <v>60000611770</v>
       </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -11577,12 +14697,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N157" t="n">
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>60000611771</v>
       </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11648,12 +14788,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N158" t="n">
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
         <v>60000611772</v>
       </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11719,12 +14879,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N159" t="n">
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
         <v>60000611778</v>
       </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11790,12 +14970,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N160" t="n">
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
         <v>60000611779</v>
       </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11861,12 +15061,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N161" t="n">
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
         <v>60000611790</v>
       </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -11932,12 +15152,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N162" t="n">
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
         <v>60000611791</v>
       </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12003,12 +15243,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N163" t="n">
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
         <v>60000611798</v>
       </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12074,12 +15334,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N164" t="n">
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
         <v>60000611806</v>
       </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12145,12 +15425,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N165" t="n">
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
         <v>60000611809</v>
       </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12216,12 +15516,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N166" t="n">
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
         <v>60000611810</v>
       </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12287,12 +15607,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N167" t="n">
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
         <v>60000611814</v>
       </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -12358,12 +15698,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N168" t="n">
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
         <v>60000611818</v>
       </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12429,12 +15789,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N169" t="n">
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
         <v>60000611819</v>
       </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12500,12 +15880,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="N170" t="n">
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
         <v>60000611821</v>
       </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12571,12 +15971,32 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
-      <c r="N171" t="n">
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
         <v>60000611823</v>
       </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12642,12 +16062,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N172" t="n">
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
         <v>60000611824</v>
       </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12713,12 +16153,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N173" t="n">
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
         <v>60000611825</v>
       </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -12784,12 +16244,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N174" t="n">
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
         <v>60000611829</v>
       </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -12855,12 +16335,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N175" t="n">
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
         <v>60000611831</v>
       </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12926,12 +16426,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N176" t="n">
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
         <v>60000611832</v>
       </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -12997,12 +16517,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N177" t="n">
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
         <v>60000611944</v>
       </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13068,12 +16608,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N178" t="n">
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
         <v>60000611945</v>
       </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13139,12 +16699,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N179" t="n">
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
         <v>60000611946</v>
       </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13210,12 +16790,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N180" t="n">
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
         <v>60000611947</v>
       </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13281,12 +16881,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N181" t="n">
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
         <v>60000611948</v>
       </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>PTB</t>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -13352,12 +16972,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N182" t="n">
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
         <v>60000611949</v>
       </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>PTB</t>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13423,12 +17063,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N183" t="n">
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
         <v>60000611950</v>
       </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13494,12 +17154,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N184" t="n">
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
         <v>60000611951</v>
       </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13565,12 +17245,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N185" t="n">
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
         <v>60000611952</v>
       </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13636,12 +17336,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N186" t="n">
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>60000611953</v>
       </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13707,12 +17427,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N187" t="n">
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
         <v>60000611954</v>
       </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13778,12 +17518,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N188" t="n">
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
         <v>60000611955</v>
       </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -13849,12 +17609,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N189" t="n">
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
         <v>60000611956</v>
       </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13920,12 +17700,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N190" t="n">
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
         <v>60000611957</v>
       </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -13991,12 +17791,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N191" t="n">
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
         <v>60000611958</v>
       </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14062,12 +17882,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N192" t="n">
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
         <v>60000611959</v>
       </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14133,12 +17973,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N193" t="n">
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
         <v>60000611960</v>
       </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14204,12 +18064,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N194" t="n">
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
         <v>60000611961</v>
       </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14275,12 +18155,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N195" t="n">
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
         <v>60000611962</v>
       </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14346,12 +18246,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N196" t="n">
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
         <v>60000611963</v>
       </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -14417,12 +18337,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N197" t="n">
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
         <v>60000611964</v>
       </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14488,12 +18428,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N198" t="n">
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
         <v>60000611965</v>
       </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14559,12 +18519,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N199" t="n">
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
         <v>60000611966</v>
       </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14630,12 +18610,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N200" t="n">
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
         <v>60000611967</v>
       </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14701,12 +18701,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N201" t="n">
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
         <v>60000611968</v>
       </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14772,12 +18792,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N202" t="n">
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
         <v>60000611969</v>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -14843,12 +18883,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="N203" t="n">
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
         <v>60000611970</v>
       </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -14914,12 +18974,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N204" t="n">
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
         <v>60000611971</v>
       </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>AMARELA</t>
         </is>
       </c>
     </row>
@@ -14985,12 +19065,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N205" t="n">
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
         <v>60000611972</v>
       </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15056,12 +19156,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N206" t="n">
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>PCO</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>PCO</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
         <v>60000616816</v>
       </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>PCO</t>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -15127,12 +19247,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N207" t="n">
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
         <v>60000620380</v>
       </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15198,12 +19338,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N208" t="n">
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
         <v>60000620381</v>
       </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -15269,12 +19429,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N209" t="n">
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
         <v>60000620382</v>
       </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15340,12 +19520,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N210" t="n">
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
         <v>60000620383</v>
       </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15411,12 +19611,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N211" t="n">
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
         <v>60000620524</v>
       </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15482,12 +19702,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N212" t="n">
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
         <v>60000620535</v>
       </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -15553,12 +19793,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N213" t="n">
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
         <v>60000620536</v>
       </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -15624,12 +19884,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N214" t="n">
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
         <v>60000620544</v>
       </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15695,12 +19975,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N215" t="n">
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
         <v>60000620546</v>
       </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15766,12 +20066,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N216" t="n">
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
         <v>60000620549</v>
       </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -15837,12 +20157,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N217" t="n">
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
         <v>60000620555</v>
       </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -15908,12 +20248,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N218" t="n">
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
         <v>60000620556</v>
       </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -15979,12 +20339,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N219" t="n">
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
         <v>60000620557</v>
       </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16050,12 +20430,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N220" t="n">
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
         <v>60000620559</v>
       </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>INDÍGENA</t>
         </is>
       </c>
     </row>
@@ -16121,12 +20521,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N221" t="n">
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
         <v>60000620560</v>
       </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -16192,12 +20612,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="N222" t="n">
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
         <v>60000620561</v>
       </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -16263,12 +20703,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N223" t="n">
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
         <v>60000620562</v>
       </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16334,12 +20794,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N224" t="n">
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
         <v>60000620563</v>
       </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16405,12 +20885,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N225" t="n">
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
         <v>60000620564</v>
       </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -16476,12 +20976,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="N226" t="n">
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
         <v>60000620565</v>
       </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16547,12 +21067,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N227" t="n">
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
         <v>60000620566</v>
       </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -16618,12 +21158,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N228" t="n">
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
         <v>60000620567</v>
       </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16689,12 +21249,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N229" t="n">
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
         <v>60000620574</v>
       </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16760,12 +21340,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N230" t="n">
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
         <v>60000620575</v>
       </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -16831,12 +21431,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N231" t="n">
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
         <v>60000620578</v>
       </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -16902,12 +21522,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N232" t="n">
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
         <v>60000620579</v>
       </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -16973,12 +21613,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N233" t="n">
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
         <v>60000620580</v>
       </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -17044,12 +21704,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N234" t="n">
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
         <v>60000620581</v>
       </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -17115,12 +21795,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N235" t="n">
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
         <v>60000620587</v>
       </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17186,12 +21886,32 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
-      <c r="N236" t="n">
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>60000620590</v>
       </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>PCB</t>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -17257,12 +21977,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N237" t="n">
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
         <v>60000621450</v>
       </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>PSTU</t>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -17328,12 +22068,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N238" t="n">
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
         <v>60000622545</v>
       </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17399,12 +22159,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N239" t="n">
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
         <v>60000622548</v>
       </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -17470,12 +22250,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N240" t="n">
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
         <v>60000622550</v>
       </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -17541,12 +22341,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N241" t="n">
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
         <v>60000622551</v>
       </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17612,12 +22432,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N242" t="n">
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
         <v>60000622552</v>
       </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17683,12 +22523,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N243" t="n">
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
         <v>60000622556</v>
       </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -17754,12 +22614,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N244" t="n">
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R244" t="n">
         <v>60000622557</v>
       </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17825,12 +22705,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N245" t="n">
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
         <v>60000622558</v>
       </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17896,12 +22796,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N246" t="n">
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
         <v>60000622559</v>
       </c>
-      <c r="O246" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -17967,12 +22887,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N247" t="n">
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
         <v>60000622561</v>
       </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18038,12 +22978,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N248" t="n">
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
         <v>60000622562</v>
       </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18109,12 +23069,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N249" t="n">
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
         <v>60000622563</v>
       </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -18180,12 +23160,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N250" t="n">
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
         <v>60000622565</v>
       </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18251,12 +23251,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N251" t="n">
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
         <v>60000622566</v>
       </c>
-      <c r="O251" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -18322,12 +23342,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N252" t="n">
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
         <v>60000622568</v>
       </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18393,12 +23433,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="N253" t="n">
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
         <v>60000628010</v>
       </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18464,12 +23524,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N254" t="n">
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="R254" t="n">
         <v>60000628053</v>
       </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -18535,12 +23615,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N255" t="n">
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="R255" t="n">
         <v>60000628103</v>
       </c>
-      <c r="O255" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18606,12 +23706,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N256" t="n">
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R256" t="n">
         <v>60000628110</v>
       </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18677,12 +23797,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N257" t="n">
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R257" t="n">
         <v>60000628111</v>
       </c>
-      <c r="O257" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18748,12 +23888,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N258" t="n">
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R258" t="n">
         <v>60000628150</v>
       </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18819,12 +23979,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N259" t="n">
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R259" t="n">
         <v>60000628151</v>
       </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -18890,12 +24070,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N260" t="n">
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R260" t="n">
         <v>60000628408</v>
       </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -18961,12 +24161,32 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
-      <c r="N261" t="n">
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="R261" t="n">
         <v>60000628409</v>
       </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -19032,12 +24252,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="N262" t="n">
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="R262" t="n">
         <v>60000628876</v>
       </c>
-      <c r="O262" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -19103,12 +24343,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="N263" t="n">
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
         <v>60000629050</v>
       </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -19174,12 +24434,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="N264" t="n">
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
         <v>60000629863</v>
       </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -19245,12 +24525,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N265" t="n">
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
         <v>60000630000</v>
       </c>
-      <c r="O265" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -19316,12 +24616,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="N266" t="n">
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
         <v>60000630072</v>
       </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
